--- a/TestCase/TestCase_Login.xlsx
+++ b/TestCase/TestCase_Login.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27230"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Users/Eric/Documents/TestCase-Selenium/TestCase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\TestCase-Selenium\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="460" windowWidth="28560" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="-45" yWindow="465" windowWidth="28560" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <calcPr calcId="80000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="4"/>
@@ -85,9 +85,6 @@
     <t>Step Details</t>
   </si>
   <si>
-    <t>Test the Login Functionality in Banking</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -279,6 +276,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>  </t>
     </r>
@@ -298,6 +296,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>  </t>
     </r>
@@ -316,19 +315,24 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>:  Selenium  Master  Login  Test  Suite</t>
     </r>
+  </si>
+  <si>
+    <t>Test the Login Functionality</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -405,20 +409,24 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -703,176 +711,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -890,6 +728,176 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -900,6 +908,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1170,60 +1181,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="13"/>
+    <col min="1" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="45"/>
       <c r="C1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="48"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="46"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -1236,13 +1247,13 @@
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -1253,7 +1264,7 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -1266,28 +1277,28 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="34" t="s">
+      <c r="E6" s="54"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="30"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I6" s="54"/>
+      <c r="J6" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="62"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1300,106 +1311,106 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="20"/>
       <c r="F8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G8" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="22">
         <v>1</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
+      <c r="B9" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="14"/>
       <c r="F9" s="22">
         <v>1</v>
       </c>
-      <c r="G9" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="27"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G9" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="48"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="22">
         <v>2</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
+      <c r="B10" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="14"/>
       <c r="F10" s="22">
         <v>2</v>
       </c>
-      <c r="G10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G10" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="48"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="22">
         <v>3</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
+      <c r="B11" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="14"/>
       <c r="F11" s="22">
         <v>3</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="48"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="22">
         <v>4</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="14"/>
       <c r="F12" s="22">
         <v>4</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="48"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -1412,12 +1423,12 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>24</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -1429,158 +1440,169 @@
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:11">
+      <c r="A16" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="36" t="s">
+      <c r="C16" s="58"/>
+      <c r="D16" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="28" t="s">
+      <c r="E16" s="61"/>
+      <c r="F16" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="28" t="s">
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-    </row>
-    <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+    </row>
+    <row r="18" spans="1:11" ht="24.75" customHeight="1">
       <c r="A18" s="22">
         <v>1</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B18" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="52"/>
+      <c r="D18" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="22">
         <v>2</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="25" t="s">
+      <c r="B19" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C19" s="41"/>
+      <c r="D19" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="48"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="22">
         <v>3</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B20" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="47"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="48"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="22">
         <v>4</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="27"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="48"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="22"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="48"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="22"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="27"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
@@ -1597,33 +1619,22 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="B16:C17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="F21:H21"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1635,219 +1646,219 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="86" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="86" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.6640625" style="86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="86" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" style="86" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="86" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="86"/>
+    <col min="1" max="1" width="24.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+    <row r="1" spans="1:7" ht="15.75">
+      <c r="A1" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="27" customFormat="1" ht="15.75">
+      <c r="A2" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="C2" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="D2" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="E2" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="F2" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="G2" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="92" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="15.95">
+      <c r="A3" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="33">
+        <v>1</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="93">
+      <c r="F3" s="33"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.95">
+      <c r="A4" s="28"/>
+      <c r="B4" s="34">
+        <v>2</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.95">
+      <c r="A5" s="28"/>
+      <c r="B5" s="34">
+        <v>3</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.95">
+      <c r="A6" s="28"/>
+      <c r="B6" s="34">
+        <v>4</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.95">
+      <c r="A7" s="30"/>
+      <c r="B7" s="35">
+        <v>5</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.95">
+      <c r="A8" s="28"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.95">
+      <c r="A9" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="33">
         <v>1</v>
       </c>
-      <c r="C3" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93" t="s">
+      <c r="C9" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.95">
+      <c r="A10" s="28"/>
+      <c r="B10" s="34">
+        <v>2</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="93"/>
-      <c r="G3" s="89"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="88"/>
-      <c r="B4" s="94">
-        <v>2</v>
-      </c>
-      <c r="C4" s="94" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="94" t="s">
+      <c r="E10" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.95">
+      <c r="A11" s="28"/>
+      <c r="B11" s="34">
+        <v>3</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="89"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="88"/>
-      <c r="B5" s="94">
-        <v>3</v>
-      </c>
-      <c r="C5" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="94" t="s">
+      <c r="E11" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.95">
+      <c r="A12" s="28"/>
+      <c r="B12" s="34">
+        <v>4</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="94"/>
-      <c r="G5" s="89"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="88"/>
-      <c r="B6" s="94">
-        <v>4</v>
-      </c>
-      <c r="C6" s="94" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="94"/>
-      <c r="G6" s="89"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="90"/>
-      <c r="B7" s="95">
+      <c r="D12" s="34"/>
+      <c r="E12" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.95">
+      <c r="A13" s="30"/>
+      <c r="B13" s="35">
         <v>5</v>
       </c>
-      <c r="C7" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="94"/>
-      <c r="G7" s="89"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="88"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="99"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="93">
-        <v>1</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="94"/>
-      <c r="G9" s="89"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="88"/>
-      <c r="B10" s="94">
-        <v>2</v>
-      </c>
-      <c r="C10" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="94" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="94"/>
-      <c r="G10" s="89"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="88"/>
-      <c r="B11" s="94">
-        <v>3</v>
-      </c>
-      <c r="C11" s="94" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="94" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="94"/>
-      <c r="G11" s="89"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="88"/>
-      <c r="B12" s="94">
-        <v>4</v>
-      </c>
-      <c r="C12" s="94" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94" t="s">
+      <c r="C13" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="94"/>
-      <c r="G12" s="89"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="90"/>
-      <c r="B13" s="95">
-        <v>5</v>
-      </c>
-      <c r="C13" s="95" t="s">
+      <c r="D13" s="35"/>
+      <c r="E13" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="95"/>
-      <c r="G13" s="91"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="31"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1864,45 +1875,45 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="73"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="58"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="51" t="s">
+      <c r="E1" s="73"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="67"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="69" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="71"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I2" s="73"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1915,11 +1926,11 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="54" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1930,7 +1941,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1943,26 +1954,26 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="66" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66" t="s">
+      <c r="E6" s="71"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I6" s="71"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1975,96 +1986,96 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="64"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="85"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="2"/>
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="58"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G9" s="65"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="67"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="2"/>
       <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="58"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="67"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="10">
         <v>3</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="2"/>
       <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="56"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="58"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G11" s="65"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="10">
         <v>4</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="2"/>
       <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="67"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2077,7 +2088,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="11" t="s">
         <v>7</v>
       </c>
@@ -2092,166 +2103,122 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:11">
+      <c r="A16" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="81" t="s">
+      <c r="C16" s="91"/>
+      <c r="D16" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="72" t="s">
+      <c r="E16" s="95"/>
+      <c r="F16" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="72" t="s">
+      <c r="G16" s="77"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="73"/>
-      <c r="K16" s="74"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="68"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="77"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J16" s="77"/>
+      <c r="K16" s="78"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="69"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="81"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="10"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="58"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B18" s="71"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="67"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="10"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="58"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B19" s="71"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="67"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="10"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="58"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B20" s="71"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="67"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="10"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="58"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B21" s="71"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="67"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="10"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B22" s="71"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="67"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="10"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="58"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="D23:E23"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
@@ -2261,8 +2228,53 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>